--- a/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data.xlsx
+++ b/doors_detection_long_term/scripts/results/faster_rcnn_complete_metric_real_data.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -746,17 +746,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -1586,12 +1586,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>82</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1906,17 +1906,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>60</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -2036,17 +2036,17 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>84</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2296,17 +2296,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>68</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>40</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>49</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2446,7 +2446,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>86</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2496,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2506,12 +2506,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2556,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2621,12 +2621,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2766,12 +2766,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>36</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2836,7 +2836,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2891,17 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -3011,27 +3011,27 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -3076,17 +3076,17 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3141,7 +3141,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3271,7 +3271,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -3281,12 +3281,12 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
@@ -3336,7 +3336,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3356,7 +3356,7 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -3406,22 +3406,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3666,17 +3666,17 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>70</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3801,17 +3801,17 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3856,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -3931,7 +3931,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -3986,17 +3986,17 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -4006,7 +4006,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -4126,7 +4126,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4136,7 +4136,7 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4191,7 +4191,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -4246,17 +4246,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4376,17 +4376,17 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -4506,17 +4506,17 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4656,7 +4656,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -4711,12 +4711,12 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4766,17 +4766,17 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
@@ -5156,7 +5156,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -5296,7 +5296,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -5366,7 +5366,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5436,7 +5436,7 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -5486,12 +5486,12 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5556,7 +5556,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5566,7 +5566,7 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -5616,12 +5616,12 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5676,7 +5676,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5686,7 +5686,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -5746,22 +5746,22 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -5806,17 +5806,17 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -5876,22 +5876,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5946,7 +5946,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -6066,27 +6066,27 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -6151,7 +6151,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -6216,7 +6216,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -6271,7 +6271,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -6326,17 +6326,17 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -6456,17 +6456,17 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -6586,17 +6586,17 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>101</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6726,7 +6726,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6846,17 +6846,17 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6866,7 +6866,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
     </row>
@@ -6911,7 +6911,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6986,7 +6986,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6996,7 +6996,7 @@
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>69</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7051,7 +7051,7 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
@@ -7061,7 +7061,7 @@
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -7126,7 +7126,7 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -7186,7 +7186,7 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
@@ -7236,7 +7236,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>82</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7246,7 +7246,7 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -7256,7 +7256,7 @@
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7301,27 +7301,27 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -7366,7 +7366,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -7376,7 +7376,7 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -7441,12 +7441,12 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7496,17 +7496,17 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -7561,17 +7561,17 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -7711,7 +7711,7 @@
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>81</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7766,7 +7766,7 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -7886,7 +7886,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>53</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7896,7 +7896,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -7956,22 +7956,22 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8016,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>85</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -8026,7 +8026,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -8101,7 +8101,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -8156,7 +8156,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -8166,7 +8166,7 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
@@ -8406,17 +8406,17 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -8676,7 +8676,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8686,7 +8686,7 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
@@ -8816,7 +8816,7 @@
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
@@ -8946,7 +8946,7 @@
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -9011,7 +9011,7 @@
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -9056,7 +9056,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9066,7 +9066,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -9121,27 +9121,27 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -9186,17 +9186,17 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9261,17 +9261,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -9316,7 +9316,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9336,7 +9336,7 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -9381,27 +9381,27 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -9446,27 +9446,27 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -9511,7 +9511,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9521,17 +9521,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -9641,12 +9641,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -9661,7 +9661,7 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -9706,17 +9706,17 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -9726,7 +9726,7 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -9836,12 +9836,12 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -9856,7 +9856,7 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9911,17 +9911,17 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -9966,17 +9966,17 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
@@ -9986,7 +9986,7 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
@@ -10051,7 +10051,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -10116,7 +10116,7 @@
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -10161,27 +10161,27 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
@@ -10246,7 +10246,7 @@
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -10291,27 +10291,27 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>127</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10356,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -10366,7 +10366,7 @@
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10421,27 +10421,27 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
@@ -10506,7 +10506,7 @@
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -10551,17 +10551,17 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
@@ -10571,7 +10571,7 @@
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10691,17 +10691,17 @@
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10746,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10756,7 +10756,7 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -10811,27 +10811,27 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -10876,7 +10876,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10896,7 +10896,7 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10951,7 +10951,7 @@
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -11006,7 +11006,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>114</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -11016,7 +11016,7 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -11071,7 +11071,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11081,17 +11081,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11146,7 +11146,7 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -11201,27 +11201,27 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>31</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -11266,7 +11266,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -11276,17 +11276,17 @@
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -11331,7 +11331,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -11341,17 +11341,17 @@
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -11396,27 +11396,27 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -11461,27 +11461,27 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -11526,17 +11526,17 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>72</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -11591,7 +11591,7 @@
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>102</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11656,7 +11656,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>97</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11731,7 +11731,7 @@
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
@@ -11741,7 +11741,7 @@
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -11786,17 +11786,17 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -11851,7 +11851,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11861,17 +11861,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -11916,27 +11916,27 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -11981,27 +11981,27 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>99</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -12046,7 +12046,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
@@ -12066,7 +12066,7 @@
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -12111,7 +12111,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12121,17 +12121,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -12176,17 +12176,17 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
@@ -12196,7 +12196,7 @@
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -12326,7 +12326,7 @@
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -12371,27 +12371,27 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>127</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12456,7 +12456,7 @@
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -12501,17 +12501,17 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L186" t="inlineStr">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -12566,7 +12566,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -12631,27 +12631,27 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>128</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12696,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
@@ -12761,27 +12761,27 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>126</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12836,7 +12836,7 @@
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
@@ -12846,7 +12846,7 @@
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -12891,27 +12891,27 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L193" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="M193" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -13021,27 +13021,27 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>129</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13086,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13106,7 +13106,7 @@
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -13151,7 +13151,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>130</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13161,17 +13161,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -13216,7 +13216,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
@@ -13236,7 +13236,7 @@
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -13281,27 +13281,27 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -13346,7 +13346,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -13356,7 +13356,7 @@
       </c>
       <c r="K199" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L199" t="inlineStr">
@@ -13366,7 +13366,7 @@
       </c>
       <c r="M199" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -13411,17 +13411,17 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>94</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13486,7 +13486,7 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
@@ -13496,7 +13496,7 @@
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13551,17 +13551,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -13606,27 +13606,27 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -13671,7 +13671,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13681,17 +13681,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -13736,27 +13736,27 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -13801,27 +13801,27 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13876,17 +13876,17 @@
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -13931,27 +13931,27 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -13996,7 +13996,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -14061,7 +14061,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>87</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14071,17 +14071,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -14126,27 +14126,27 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>45</t>
         </is>
       </c>
     </row>
@@ -14191,7 +14191,7 @@
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
@@ -14201,17 +14201,17 @@
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -14256,12 +14256,12 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K213" t="inlineStr">
@@ -14276,7 +14276,7 @@
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>123</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -14331,17 +14331,17 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>40</t>
         </is>
       </c>
     </row>
@@ -14386,27 +14386,27 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -14451,17 +14451,17 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>129</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
@@ -14471,7 +14471,7 @@
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>35</t>
         </is>
       </c>
     </row>
@@ -14516,7 +14516,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -14526,7 +14526,7 @@
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="M217" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -14581,7 +14581,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -14591,17 +14591,17 @@
       </c>
       <c r="K218" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14646,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>106</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14656,17 +14656,17 @@
       </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -14711,17 +14711,17 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>128</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
@@ -14731,7 +14731,7 @@
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -14776,7 +14776,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>108</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -14796,7 +14796,7 @@
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -14841,27 +14841,27 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>129</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -14906,7 +14906,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14916,7 +14916,7 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
@@ -14926,7 +14926,7 @@
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -14971,7 +14971,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14981,12 +14981,12 @@
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -15036,7 +15036,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -15046,7 +15046,7 @@
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
@@ -15056,7 +15056,7 @@
       </c>
       <c r="M225" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -15101,17 +15101,17 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L226" t="inlineStr">
@@ -15121,7 +15121,7 @@
       </c>
       <c r="M226" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -15176,17 +15176,17 @@
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -15231,7 +15231,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>131</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -15241,17 +15241,17 @@
       </c>
       <c r="K228" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -15296,7 +15296,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -15306,17 +15306,17 @@
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -15361,27 +15361,27 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -15426,17 +15426,17 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L231" t="inlineStr">
@@ -15446,7 +15446,7 @@
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -15491,7 +15491,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>158</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -15501,17 +15501,17 @@
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L232" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>81</t>
         </is>
       </c>
     </row>
@@ -15556,7 +15556,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -15566,7 +15566,7 @@
       </c>
       <c r="K233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L233" t="inlineStr">
@@ -15631,17 +15631,17 @@
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>73</t>
         </is>
       </c>
     </row>
@@ -15686,12 +15686,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>67</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
@@ -15706,7 +15706,7 @@
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
     </row>
@@ -15751,7 +15751,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>149</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -15761,7 +15761,7 @@
       </c>
       <c r="K236" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L236" t="inlineStr">
@@ -15771,7 +15771,7 @@
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>80</t>
         </is>
       </c>
     </row>
@@ -15816,17 +15816,17 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>89</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L237" t="inlineStr">
@@ -15836,7 +15836,7 @@
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -15881,7 +15881,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>151</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -15891,7 +15891,7 @@
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L238" t="inlineStr">
@@ -15901,7 +15901,7 @@
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>57</t>
         </is>
       </c>
     </row>
@@ -15946,27 +15946,27 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>154</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -16031,7 +16031,7 @@
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -16076,17 +16076,17 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L241" t="inlineStr">
@@ -16096,7 +16096,7 @@
       </c>
       <c r="M241" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
     </row>
@@ -16141,17 +16141,17 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>139</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="M242" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -16206,27 +16206,27 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>95</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -16271,17 +16271,17 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
     </row>
@@ -16336,12 +16336,12 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>109</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -16356,7 +16356,7 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -16401,7 +16401,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -16411,7 +16411,7 @@
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L246" t="inlineStr">
@@ -16421,7 +16421,7 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -16466,7 +16466,7 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
@@ -16476,17 +16476,17 @@
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M247" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16546,12 +16546,12 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16596,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>112</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16606,17 +16606,17 @@
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -16661,7 +16661,7 @@
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
@@ -16671,7 +16671,7 @@
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L250" t="inlineStr">
@@ -16681,7 +16681,7 @@
       </c>
       <c r="M250" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>54</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>104</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16736,7 +16736,7 @@
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L251" t="inlineStr">
@@ -16746,7 +16746,7 @@
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>179</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16801,17 +16801,17 @@
       </c>
       <c r="K252" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -16856,12 +16856,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>113</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -16876,7 +16876,7 @@
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>184</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -16986,17 +16986,17 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>125</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
@@ -17006,7 +17006,7 @@
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -17051,7 +17051,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -17066,7 +17066,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -17116,7 +17116,7 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -17181,7 +17181,7 @@
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>175</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
@@ -17201,7 +17201,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -17246,12 +17246,12 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>120</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -17266,7 +17266,7 @@
       </c>
       <c r="M259" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -17311,7 +17311,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>183</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -17321,12 +17321,12 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M260" t="inlineStr">
@@ -17376,17 +17376,17 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
       <c r="L261" t="inlineStr">
@@ -17451,17 +17451,17 @@
       </c>
       <c r="K262" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>55</t>
         </is>
       </c>
     </row>
@@ -17506,7 +17506,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -17516,7 +17516,7 @@
       </c>
       <c r="K263" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L263" t="inlineStr">
@@ -17571,7 +17571,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -17581,17 +17581,17 @@
       </c>
       <c r="K264" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>79</t>
         </is>
       </c>
     </row>
@@ -17636,17 +17636,17 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L265" t="inlineStr">
@@ -17656,7 +17656,7 @@
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -17701,7 +17701,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -17711,17 +17711,17 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>85</t>
         </is>
       </c>
     </row>
@@ -17771,7 +17771,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="M267" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -17831,7 +17831,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>142</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L268" t="inlineStr">
@@ -17851,7 +17851,7 @@
       </c>
       <c r="M268" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>61</t>
         </is>
       </c>
     </row>
@@ -17896,17 +17896,17 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>93</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L269" t="inlineStr">
@@ -17916,7 +17916,7 @@
       </c>
       <c r="M269" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>133</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -17971,7 +17971,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L270" t="inlineStr">
@@ -17981,7 +17981,7 @@
       </c>
       <c r="M270" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -18026,17 +18026,17 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K271" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L271" t="inlineStr">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="M271" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -18091,7 +18091,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>145</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="M272" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -18156,17 +18156,17 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L273" t="inlineStr">
@@ -18176,7 +18176,7 @@
       </c>
       <c r="M273" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -18221,7 +18221,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>155</t>
+          <t>157</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
@@ -18231,17 +18231,17 @@
       </c>
       <c r="K274" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>60</t>
         </is>
       </c>
     </row>
@@ -18286,17 +18286,17 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>98</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L275" t="inlineStr">
@@ -18306,7 +18306,7 @@
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -18351,7 +18351,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>142</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18361,7 +18361,7 @@
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L276" t="inlineStr">
@@ -18371,7 +18371,7 @@
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
     </row>
@@ -18416,17 +18416,17 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L277" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -18491,7 +18491,7 @@
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L278" t="inlineStr">
@@ -18501,7 +18501,7 @@
       </c>
       <c r="M278" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -18546,17 +18546,17 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>103</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
@@ -18611,7 +18611,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18621,7 +18621,7 @@
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
@@ -18631,7 +18631,7 @@
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -18676,17 +18676,17 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L281" t="inlineStr">
@@ -18696,7 +18696,7 @@
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -18741,7 +18741,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -18751,7 +18751,7 @@
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L282" t="inlineStr">
@@ -18761,7 +18761,7 @@
       </c>
       <c r="M282" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>49</t>
         </is>
       </c>
     </row>
@@ -18806,27 +18806,27 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>115</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -18871,7 +18871,7 @@
       </c>
       <c r="I284" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>185</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
@@ -18881,7 +18881,7 @@
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L284" t="inlineStr">
@@ -18891,7 +18891,7 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
     </row>
@@ -18936,7 +18936,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>107</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18946,7 +18946,7 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L285" t="inlineStr">
@@ -18956,7 +18956,7 @@
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -19001,12 +19001,12 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>179</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K286" t="inlineStr">
@@ -19016,7 +19016,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -19066,17 +19066,17 @@
       </c>
       <c r="I287" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>116</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L287" t="inlineStr">
@@ -19086,7 +19086,7 @@
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -19131,7 +19131,7 @@
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>178</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
@@ -19141,7 +19141,7 @@
       </c>
       <c r="K288" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L288" t="inlineStr">
@@ -19151,7 +19151,7 @@
       </c>
       <c r="M288" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
     </row>
@@ -19196,7 +19196,7 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>118</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="L289" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M289" t="inlineStr">
@@ -19261,7 +19261,7 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
@@ -19281,7 +19281,7 @@
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -19326,7 +19326,7 @@
       </c>
       <c r="I291" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
@@ -19346,7 +19346,7 @@
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -19391,7 +19391,7 @@
       </c>
       <c r="I292" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
@@ -19401,17 +19401,17 @@
       </c>
       <c r="K292" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M292" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -19456,12 +19456,12 @@
       </c>
       <c r="I293" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -19521,7 +19521,7 @@
       </c>
       <c r="I294" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>141</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
@@ -19531,17 +19531,17 @@
       </c>
       <c r="K294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>104</t>
         </is>
       </c>
     </row>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>59</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -19596,12 +19596,12 @@
       </c>
       <c r="K295" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L295" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M295" t="inlineStr">
@@ -19651,7 +19651,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -19661,17 +19661,17 @@
       </c>
       <c r="K296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L296" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M296" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>64</t>
         </is>
       </c>
     </row>
@@ -19716,12 +19716,12 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K297" t="inlineStr">
@@ -19736,7 +19736,7 @@
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -19791,7 +19791,7 @@
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L298" t="inlineStr">
@@ -19801,7 +19801,7 @@
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>66</t>
         </is>
       </c>
     </row>
@@ -19846,7 +19846,7 @@
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>61</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19856,7 +19856,7 @@
       </c>
       <c r="K299" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L299" t="inlineStr">
@@ -19911,27 +19911,27 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>144</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>87</t>
         </is>
       </c>
     </row>
@@ -19976,27 +19976,27 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M301" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -20041,7 +20041,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>163</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -20051,17 +20051,17 @@
       </c>
       <c r="K302" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>94</t>
         </is>
       </c>
     </row>
@@ -20106,17 +20106,17 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>86</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L303" t="inlineStr">
@@ -20126,7 +20126,7 @@
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -20171,7 +20171,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>159</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -20181,7 +20181,7 @@
       </c>
       <c r="K304" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L304" t="inlineStr">
@@ -20191,7 +20191,7 @@
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -20236,17 +20236,17 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>117</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L305" t="inlineStr">
@@ -20256,7 +20256,7 @@
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -20301,7 +20301,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>137</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -20311,17 +20311,17 @@
       </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M306" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -20366,17 +20366,17 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L307" t="inlineStr">
@@ -20386,7 +20386,7 @@
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -20431,7 +20431,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>151</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -20446,12 +20446,12 @@
       </c>
       <c r="L308" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -20496,17 +20496,17 @@
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="L309" t="inlineStr">
@@ -20516,7 +20516,7 @@
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -20561,7 +20561,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -20581,7 +20581,7 @@
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>51</t>
         </is>
       </c>
     </row>
@@ -20626,27 +20626,27 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>110</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -20691,7 +20691,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -20701,7 +20701,7 @@
       </c>
       <c r="K312" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="L312" t="inlineStr">
@@ -20711,7 +20711,7 @@
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -20766,17 +20766,17 @@
       </c>
       <c r="K313" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -20821,7 +20821,7 @@
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>173</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -20831,7 +20831,7 @@
       </c>
       <c r="K314" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L314" t="inlineStr">
@@ -20841,7 +20841,7 @@
       </c>
       <c r="M314" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>42</t>
         </is>
       </c>
     </row>
@@ -20886,17 +20886,17 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>111</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="L315" t="inlineStr">
@@ -20906,7 +20906,7 @@
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -20951,7 +20951,7 @@
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>182</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
@@ -20966,12 +20966,12 @@
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
     </row>
@@ -21016,22 +21016,22 @@
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>119</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
@@ -21081,7 +21081,7 @@
       </c>
       <c r="I318" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>177</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
@@ -21101,7 +21101,7 @@
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -21146,17 +21146,17 @@
       </c>
       <c r="I319" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>121</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L319" t="inlineStr">
@@ -21166,7 +21166,7 @@
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -21211,7 +21211,7 @@
       </c>
       <c r="I320" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>181</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
@@ -21221,7 +21221,7 @@
       </c>
       <c r="K320" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="L320" t="inlineStr">
@@ -21231,7 +21231,7 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
     </row>
@@ -21276,12 +21276,12 @@
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -21341,7 +21341,7 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>175</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
@@ -21361,7 +21361,7 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -21406,27 +21406,27 @@
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>122</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="L323" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -21471,7 +21471,7 @@
       </c>
       <c r="I324" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>176</t>
         </is>
       </c>
       <c r="J324" t="inlineStr">
@@ -21536,19 +21536,19 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="L325" t="inlineStr">
         <is>
           <t>0</t>
@@ -21556,7 +21556,7 @@
       </c>
       <c r="M325" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
     </row>
